--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Amputación extremidades inferiores (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Amputación extremidades inferiores (UPTO).xlsx
@@ -667,19 +667,19 @@
         <v>-1.181307160490231</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5730421167454481</v>
+        <v>-0.573042116745448</v>
       </c>
       <c r="F3" t="n">
         <v>-1.854065308374686</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.805261974797294</v>
+        <v>-2.805261974797293</v>
       </c>
       <c r="H3" t="n">
         <v>-1.762732774957394</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.928308965903502</v>
+        <v>-3.928308965903503</v>
       </c>
       <c r="J3" t="n">
         <v>-2.370634775554061</v>
@@ -712,22 +712,22 @@
         <v>1.921881715725341</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7322702384317741</v>
+        <v>0.7322702384317745</v>
       </c>
       <c r="U3" t="n">
         <v>3.457567302221792</v>
       </c>
       <c r="V3" t="n">
-        <v>1.514020753210418</v>
+        <v>1.514020753210417</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5551822971028032</v>
+        <v>0.5551822971028035</v>
       </c>
       <c r="X3" t="n">
         <v>2.759840986857681</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4206480396116613</v>
+        <v>0.4206480396116612</v>
       </c>
       <c r="Z3" t="n">
         <v>0.0405694436109519</v>
@@ -750,13 +750,13 @@
         <v>-0.8980001538133986</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4317105840900398</v>
+        <v>-0.4317105840900399</v>
       </c>
       <c r="F4" t="n">
         <v>-1.423007140562444</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.323199241180725</v>
+        <v>-2.323199241180724</v>
       </c>
       <c r="H4" t="n">
         <v>-1.409647376386924</v>
@@ -765,7 +765,7 @@
         <v>-3.288677438672906</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.733728119066042</v>
+        <v>-1.733728119066041</v>
       </c>
       <c r="K4" t="n">
         <v>-1.388337129195852</v>
@@ -774,13 +774,13 @@
         <v>-1.939103890987933</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9630544244922192</v>
+        <v>0.9630544244922188</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03777332890247864</v>
+        <v>0.0377733289024782</v>
       </c>
       <c r="O4" t="n">
-        <v>2.25198358164302</v>
+        <v>2.251983581643021</v>
       </c>
       <c r="P4" t="n">
         <v>2.360884202864312</v>
@@ -804,16 +804,16 @@
         <v>1.815404864465747</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7333768612209569</v>
+        <v>0.7333768612209571</v>
       </c>
       <c r="X4" t="n">
         <v>3.190049140276376</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4806156698678582</v>
+        <v>0.4806156698678581</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0561188147242096</v>
+        <v>0.05611881472420959</v>
       </c>
       <c r="AA4" t="n">
         <v>1.143385880585952</v>
@@ -839,16 +839,16 @@
         <v>-0.6399278153559563</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.8754506149882011</v>
+        <v>-0.8754506149882006</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.7346399207086038</v>
+        <v>-0.7346399207086041</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.9199575725758118</v>
+        <v>-0.9199575725758136</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.5268449325037667</v>
+        <v>-0.5268449325037672</v>
       </c>
       <c r="K5" t="n">
         <v>-0.716836293826804</v>
@@ -857,7 +857,7 @@
         <v>-0.07765283096130116</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2813708352725479</v>
+        <v>0.281370835272547</v>
       </c>
       <c r="N5" t="n">
         <v>-0.4044318789598158</v>
@@ -869,7 +869,7 @@
         <v>1.05311205476928</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08530071494590707</v>
+        <v>0.08530071494590752</v>
       </c>
       <c r="R5" t="n">
         <v>2.372186390472765</v>
@@ -878,25 +878,25 @@
         <v>1.382265405773754</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3622518217138484</v>
+        <v>0.3622518217138486</v>
       </c>
       <c r="U5" t="n">
         <v>2.753571102007457</v>
       </c>
       <c r="V5" t="n">
-        <v>1.127530537449199</v>
+        <v>1.127530537449198</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2956998741144605</v>
+        <v>0.295699874114461</v>
       </c>
       <c r="X5" t="n">
         <v>2.228843534797798</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3228726363049993</v>
+        <v>0.3228726363049991</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003731879136323772</v>
+        <v>0.003731879136323779</v>
       </c>
       <c r="AA5" t="n">
         <v>0.8822929016168306</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3001238172370235</v>
+        <v>0.3001238172370234</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08629408475124588</v>
+        <v>0.08629408475124589</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5838781423176187</v>
+        <v>0.5838781423176188</v>
       </c>
       <c r="G6" t="n">
         <v>1.035516601976886</v>
@@ -928,13 +928,13 @@
         <v>0.4238882275682767</v>
       </c>
       <c r="I6" t="n">
-        <v>1.862653014049933</v>
+        <v>1.862653014049932</v>
       </c>
       <c r="J6" t="n">
         <v>1.808861457683614</v>
       </c>
       <c r="K6" t="n">
-        <v>0.764832030463465</v>
+        <v>0.7648320304634649</v>
       </c>
       <c r="L6" t="n">
         <v>3.138891035143033</v>
@@ -955,13 +955,13 @@
         <v>1.107530683334111</v>
       </c>
       <c r="R6" t="n">
-        <v>4.24456631374294</v>
+        <v>4.244566313742939</v>
       </c>
       <c r="S6" t="n">
         <v>2.290761939281824</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9780986492222025</v>
+        <v>0.9780986492222027</v>
       </c>
       <c r="U6" t="n">
         <v>3.920882591835328</v>
@@ -976,7 +976,7 @@
         <v>2.803077551336925</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3950656055604959</v>
+        <v>0.3950656055604958</v>
       </c>
       <c r="Z6" t="n">
         <v>0.01035538754277994</v>
@@ -1005,13 +1005,13 @@
         <v>-0.3406943054839301</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0276815389982048</v>
+        <v>0.02768153899820547</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04197500684596756</v>
+        <v>-0.04197500684596744</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1316322913517514</v>
+        <v>0.1316322913517518</v>
       </c>
       <c r="J7" t="n">
         <v>1.565547290877146</v>
@@ -1088,16 +1088,16 @@
         <v>0.04033224587485351</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9368350030421435</v>
+        <v>0.9368350030421445</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6712529323461536</v>
+        <v>0.6712529323461538</v>
       </c>
       <c r="I8" t="n">
-        <v>1.183498210112413</v>
+        <v>1.183498210112415</v>
       </c>
       <c r="J8" t="n">
-        <v>3.61127346236266</v>
+        <v>3.611273462362662</v>
       </c>
       <c r="K8" t="n">
         <v>2.122859592358685</v>
@@ -1106,7 +1106,7 @@
         <v>5.282035603629726</v>
       </c>
       <c r="M8" t="n">
-        <v>7.808980814253787</v>
+        <v>7.808980814253788</v>
       </c>
       <c r="N8" t="n">
         <v>4.679182350030935</v>
@@ -1124,13 +1124,13 @@
         <v>11.60826410996131</v>
       </c>
       <c r="S8" t="n">
-        <v>6.556604286589802</v>
+        <v>6.556604286589801</v>
       </c>
       <c r="T8" t="n">
         <v>3.88301703578744</v>
       </c>
       <c r="U8" t="n">
-        <v>9.490591230604682</v>
+        <v>9.490591230604684</v>
       </c>
       <c r="V8" t="n">
         <v>3.883100070410435</v>
@@ -1142,7 +1142,7 @@
         <v>6.070510307174544</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9076433475053171</v>
+        <v>0.9076433475053172</v>
       </c>
       <c r="Z8" t="n">
         <v>0.1266068858262941</v>
@@ -1168,22 +1168,22 @@
         <v>-0.1101125523455414</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1867766871652609</v>
+        <v>-0.1867766871652607</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05856830195727492</v>
+        <v>0.05856830195727536</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1312842502150879</v>
+        <v>-0.1312842502150882</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3579252077198918</v>
+        <v>0.3579252077198913</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9802986399492633</v>
+        <v>0.9802986399492628</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2741271933400538</v>
+        <v>0.2741271933400535</v>
       </c>
       <c r="L9" t="n">
         <v>1.952341951049561</v>
@@ -1207,7 +1207,7 @@
         <v>4.531917119261305</v>
       </c>
       <c r="S9" t="n">
-        <v>2.538142613380191</v>
+        <v>2.538142613380192</v>
       </c>
       <c r="T9" t="n">
         <v>1.148057187262993</v>
@@ -1219,13 +1219,13 @@
         <v>1.719247819738116</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6520634576274296</v>
+        <v>0.6520634576274298</v>
       </c>
       <c r="X9" t="n">
         <v>3.05478723452132</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4447169141447827</v>
+        <v>0.4447169141447826</v>
       </c>
       <c r="Z9" t="n">
         <v>0.02473653539159724</v>
@@ -1251,19 +1251,19 @@
         <v>0.1872253813159797</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4020218679239461</v>
+        <v>0.4020218679239462</v>
       </c>
       <c r="G10" t="n">
-        <v>1.883676752774092</v>
+        <v>1.883676752774093</v>
       </c>
       <c r="H10" t="n">
         <v>1.123610283482094</v>
       </c>
       <c r="I10" t="n">
-        <v>2.686845742276964</v>
+        <v>2.686845742276966</v>
       </c>
       <c r="J10" t="n">
-        <v>4.673166539574002</v>
+        <v>4.673166539574003</v>
       </c>
       <c r="K10" t="n">
         <v>2.756312817717215</v>
@@ -1272,7 +1272,7 @@
         <v>6.855777212988674</v>
       </c>
       <c r="M10" t="n">
-        <v>7.967062447144315</v>
+        <v>7.967062447144316</v>
       </c>
       <c r="N10" t="n">
         <v>4.798748661038461</v>
@@ -1308,7 +1308,7 @@
         <v>5.784328016876282</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8599010562484198</v>
+        <v>0.8599010562484199</v>
       </c>
       <c r="Z10" t="n">
         <v>0.1021316520062349</v>
@@ -1340,13 +1340,13 @@
         <v>2.409449082136204</v>
       </c>
       <c r="H11" t="n">
-        <v>1.236388119325869</v>
+        <v>1.236388119325868</v>
       </c>
       <c r="I11" t="n">
         <v>3.778234937744549</v>
       </c>
       <c r="J11" t="n">
-        <v>4.279574049892451</v>
+        <v>4.27957404989245</v>
       </c>
       <c r="K11" t="n">
         <v>2.379750810625358</v>
@@ -1391,7 +1391,7 @@
         <v>4.010967754519728</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5795501379148216</v>
+        <v>0.5795501379148217</v>
       </c>
       <c r="Z11" t="n">
         <v>0.0327776945515724</v>
@@ -1414,22 +1414,22 @@
         <v>1.037669781237494</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4078921164957443</v>
+        <v>0.4078921164957444</v>
       </c>
       <c r="F12" t="n">
         <v>1.820108595714802</v>
       </c>
       <c r="G12" t="n">
-        <v>3.417284145114886</v>
+        <v>3.417284145114885</v>
       </c>
       <c r="H12" t="n">
-        <v>1.702251353740113</v>
+        <v>1.702251353740112</v>
       </c>
       <c r="I12" t="n">
-        <v>5.50925566044273</v>
+        <v>5.509255660442729</v>
       </c>
       <c r="J12" t="n">
-        <v>4.522888216698918</v>
+        <v>4.522888216698917</v>
       </c>
       <c r="K12" t="n">
         <v>2.42729635299937</v>
@@ -1459,10 +1459,10 @@
         <v>2.301049882036673</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9821695773811341</v>
+        <v>0.9821695773811342</v>
       </c>
       <c r="U12" t="n">
-        <v>3.954433970909882</v>
+        <v>3.954433970909881</v>
       </c>
       <c r="V12" t="n">
         <v>1.434266043218572</v>
@@ -1474,7 +1474,7 @@
         <v>2.667815645581869</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.3591668498374204</v>
+        <v>0.3591668498374203</v>
       </c>
       <c r="Z12" t="n">
         <v>-0.02102689178983241</v>
@@ -1503,7 +1503,7 @@
         <v>1.955756022613314</v>
       </c>
       <c r="G13" t="n">
-        <v>4.308373678986227</v>
+        <v>4.308373678986226</v>
       </c>
       <c r="H13" t="n">
         <v>2.353790216943779</v>
@@ -1521,7 +1521,7 @@
         <v>9.903777357108778</v>
       </c>
       <c r="M13" t="n">
-        <v>7.413242752718753</v>
+        <v>7.413242752718754</v>
       </c>
       <c r="N13" t="n">
         <v>4.448293288528699</v>
@@ -1557,7 +1557,7 @@
         <v>4.571412728213309</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.652506714101274</v>
+        <v>0.6525067141012741</v>
       </c>
       <c r="Z13" t="n">
         <v>0.0353635685695318</v>
@@ -1589,13 +1589,13 @@
         <v>2.885490505695241</v>
       </c>
       <c r="H14" t="n">
-        <v>1.568910492566853</v>
+        <v>1.568910492566854</v>
       </c>
       <c r="I14" t="n">
         <v>4.417590410142048</v>
       </c>
       <c r="J14" t="n">
-        <v>4.963146758275869</v>
+        <v>4.963146758275868</v>
       </c>
       <c r="K14" t="n">
         <v>2.832408037738251</v>
@@ -1610,7 +1610,7 @@
         <v>3.67520562329882</v>
       </c>
       <c r="O14" t="n">
-        <v>9.188673787020628</v>
+        <v>9.188673787020626</v>
       </c>
       <c r="P14" t="n">
         <v>5.843493479384373</v>
@@ -1622,25 +1622,25 @@
         <v>8.550555855341424</v>
       </c>
       <c r="S14" t="n">
-        <v>4.568875133178559</v>
+        <v>4.568875133178558</v>
       </c>
       <c r="T14" t="n">
         <v>2.527133374843234</v>
       </c>
       <c r="U14" t="n">
-        <v>6.915287340348144</v>
+        <v>6.915287340348143</v>
       </c>
       <c r="V14" t="n">
         <v>2.707227088390993</v>
       </c>
       <c r="W14" t="n">
-        <v>1.235044304214529</v>
+        <v>1.235044304214528</v>
       </c>
       <c r="X14" t="n">
         <v>4.434281386515649</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6398995716364965</v>
+        <v>0.6398995716364966</v>
       </c>
       <c r="Z14" t="n">
         <v>0.04630824847058171</v>
@@ -1672,22 +1672,22 @@
         <v>1.054360744820891</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2934529335401864</v>
+        <v>0.293452933540186</v>
       </c>
       <c r="I15" t="n">
-        <v>2.088393820751878</v>
+        <v>2.088393820751876</v>
       </c>
       <c r="J15" t="n">
-        <v>1.316944910546528</v>
+        <v>1.316944910546526</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3787720910081136</v>
+        <v>0.3787720910081134</v>
       </c>
       <c r="L15" t="n">
-        <v>2.605199357438024</v>
+        <v>2.605199357438025</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5612728153379023</v>
+        <v>0.5612728153379014</v>
       </c>
       <c r="N15" t="n">
         <v>-0.1986790277307557</v>
@@ -1696,7 +1696,7 @@
         <v>1.644636134304167</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5947897457520805</v>
+        <v>0.5947897457520801</v>
       </c>
       <c r="Q15" t="n">
         <v>-0.2517289609653464</v>
@@ -1705,25 +1705,25 @@
         <v>1.77952222479791</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8426490958221673</v>
+        <v>0.8426490958221677</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.007766595004077503</v>
+        <v>-0.007766595004077059</v>
       </c>
       <c r="U15" t="n">
         <v>2.049574901793122</v>
       </c>
       <c r="V15" t="n">
-        <v>0.74104032168798</v>
+        <v>0.7410403216879797</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03621745112611796</v>
+        <v>0.03621745112611829</v>
       </c>
       <c r="X15" t="n">
         <v>1.697846082737914</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2250972329983373</v>
+        <v>0.2250972329983371</v>
       </c>
       <c r="Z15" t="n">
         <v>-0.03310568533830435</v>
@@ -1746,7 +1746,7 @@
         <v>0.1963644712867423</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03906146806136043</v>
+        <v>0.03906146806136046</v>
       </c>
       <c r="F16" t="n">
         <v>0.420292059344104</v>
@@ -1755,10 +1755,10 @@
         <v>1.023473981861821</v>
       </c>
       <c r="H16" t="n">
-        <v>0.382762176909307</v>
+        <v>0.3827621769093068</v>
       </c>
       <c r="I16" t="n">
-        <v>1.862100904383737</v>
+        <v>1.862100904383736</v>
       </c>
       <c r="J16" t="n">
         <v>1.90219356147441</v>
@@ -1776,7 +1776,7 @@
         <v>1.022177140492416</v>
       </c>
       <c r="O16" t="n">
-        <v>4.046165939898556</v>
+        <v>4.046165939898555</v>
       </c>
       <c r="P16" t="n">
         <v>2.498739186121563</v>
@@ -1791,7 +1791,7 @@
         <v>2.268334458404398</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9630479789040304</v>
+        <v>0.9630479789040306</v>
       </c>
       <c r="U16" t="n">
         <v>3.908249897161824</v>
@@ -1800,13 +1800,13 @@
         <v>1.526002711857507</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5223222461332583</v>
+        <v>0.5223222461332584</v>
       </c>
       <c r="X16" t="n">
         <v>2.789288508491378</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3958292124914517</v>
+        <v>0.3958292124914516</v>
       </c>
       <c r="Z16" t="n">
         <v>0.006317753154283175</v>
@@ -1835,7 +1835,7 @@
         <v>2.147280761661832</v>
       </c>
       <c r="G17" t="n">
-        <v>3.441369385345015</v>
+        <v>3.441369385345014</v>
       </c>
       <c r="H17" t="n">
         <v>1.784503455058052</v>
@@ -1868,7 +1868,7 @@
         <v>1.374861274717884</v>
       </c>
       <c r="R17" t="n">
-        <v>4.73850347045165</v>
+        <v>4.738503470451651</v>
       </c>
       <c r="S17" t="n">
         <v>2.345904843791525</v>
@@ -1918,7 +1918,7 @@
         <v>-1.25942105758893</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.311156621065659</v>
+        <v>-2.311156621065658</v>
       </c>
       <c r="H18" t="n">
         <v>-1.368521325727954</v>
@@ -1927,25 +1927,25 @@
         <v>-3.28812532900671</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.827060222856839</v>
+        <v>-1.827060222856837</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.4454364844899</v>
+        <v>-1.445436484489899</v>
       </c>
       <c r="L18" t="n">
         <v>-2.093980901094122</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9509673292536522</v>
+        <v>0.9509673292536514</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02664673864048117</v>
+        <v>0.02664673864048073</v>
       </c>
       <c r="O18" t="n">
-        <v>2.253628801442826</v>
+        <v>2.253628801442827</v>
       </c>
       <c r="P18" t="n">
-        <v>2.370528759782224</v>
+        <v>2.370528759782225</v>
       </c>
       <c r="Q18" t="n">
         <v>1.080617842890859</v>
@@ -1972,10 +1972,10 @@
         <v>3.203838183121924</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.4798520629369024</v>
+        <v>0.4798520629369023</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.06015644911270636</v>
+        <v>0.06015644911270637</v>
       </c>
       <c r="AA18" t="n">
         <v>1.139708562152052</v>
@@ -2001,16 +2001,16 @@
         <v>2.19146668241874</v>
       </c>
       <c r="G19" t="n">
-        <v>4.34528175200283</v>
+        <v>4.345281752002828</v>
       </c>
       <c r="H19" t="n">
         <v>2.285043998904143</v>
       </c>
       <c r="I19" t="n">
-        <v>6.786862385905337</v>
+        <v>6.786862385905336</v>
       </c>
       <c r="J19" t="n">
-        <v>6.076697841047347</v>
+        <v>6.076697841047345</v>
       </c>
       <c r="K19" t="n">
         <v>3.446809517813252</v>
@@ -2049,13 +2049,13 @@
         <v>2.023773137463141</v>
       </c>
       <c r="W19" t="n">
-        <v>0.7973775349973677</v>
+        <v>0.7973775349973676</v>
       </c>
       <c r="X19" t="n">
         <v>3.486864823882618</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.4813929311426817</v>
+        <v>0.4813929311426818</v>
       </c>
       <c r="Z19" t="n">
         <v>-0.002041052728807342</v>
@@ -2084,7 +2084,7 @@
         <v>1.798015635336348</v>
       </c>
       <c r="G20" t="n">
-        <v>2.965327961785979</v>
+        <v>2.965327961785977</v>
       </c>
       <c r="H20" t="n">
         <v>1.451981081817067</v>
@@ -2093,7 +2093,7 @@
         <v>4.871004407377622</v>
       </c>
       <c r="J20" t="n">
-        <v>3.652651300733908</v>
+        <v>3.652651300733907</v>
       </c>
       <c r="K20" t="n">
         <v>1.860440415298382</v>
@@ -2102,7 +2102,7 @@
         <v>5.821743223542359</v>
       </c>
       <c r="M20" t="n">
-        <v>2.642525586798482</v>
+        <v>2.642525586798481</v>
       </c>
       <c r="N20" t="n">
         <v>1.216803401459479</v>
@@ -2114,7 +2114,7 @@
         <v>2.050061434022276</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7705010074228571</v>
+        <v>0.7705010074228573</v>
       </c>
       <c r="R20" t="n">
         <v>3.651902148068084</v>
@@ -2123,7 +2123,7 @@
         <v>1.751145629330237</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6080802325042767</v>
+        <v>0.6080802325042769</v>
       </c>
       <c r="U20" t="n">
         <v>3.216886391620993</v>
@@ -2132,13 +2132,13 @@
         <v>1.143932872184985</v>
       </c>
       <c r="W20" t="n">
-        <v>0.262850041034251</v>
+        <v>0.2628500410342511</v>
       </c>
       <c r="X20" t="n">
         <v>2.272080099277042</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2972902022538339</v>
+        <v>0.2972902022538338</v>
       </c>
       <c r="Z20" t="n">
         <v>-0.02648217693184819</v>
@@ -2167,19 +2167,19 @@
         <v>0.8416817625014996</v>
       </c>
       <c r="G21" t="n">
-        <v>1.524380858322396</v>
+        <v>1.524380858322395</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6054122814516867</v>
+        <v>0.6054122814516864</v>
       </c>
       <c r="I21" t="n">
-        <v>2.727473238316279</v>
+        <v>2.727473238316278</v>
       </c>
       <c r="J21" t="n">
-        <v>2.047183670825343</v>
+        <v>2.047183670825342</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8599789957680304</v>
+        <v>0.8599789957680303</v>
       </c>
       <c r="L21" t="n">
         <v>3.581477495916908</v>
@@ -2203,10 +2203,10 @@
         <v>2.861632908521945</v>
       </c>
       <c r="S21" t="n">
-        <v>1.426194569844742</v>
+        <v>1.426194569844743</v>
       </c>
       <c r="T21" t="n">
-        <v>0.388898755350038</v>
+        <v>0.3888987553500383</v>
       </c>
       <c r="U21" t="n">
         <v>2.806071523092265</v>
@@ -2215,13 +2215,13 @@
         <v>1.038004056854613</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2144017973549364</v>
+        <v>0.2144017973549366</v>
       </c>
       <c r="X21" t="n">
         <v>2.114265193311062</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2858284701854901</v>
+        <v>0.2858284701854899</v>
       </c>
       <c r="Z21" t="n">
         <v>-0.02159394861354343</v>
@@ -2301,10 +2301,10 @@
         <v>1.721138881332334</v>
       </c>
       <c r="X22" t="n">
-        <v>5.511934769423567</v>
+        <v>5.511934769423566</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.8113951580605667</v>
+        <v>0.8113951580605669</v>
       </c>
       <c r="Z22" t="n">
         <v>0.08169405257467247</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8103048369086827</v>
+        <v>0.8103048369086826</v>
       </c>
       <c r="E23" t="n">
         <v>0.2672932186688324</v>
@@ -2336,22 +2336,22 @@
         <v>2.043351664955567</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8897514619825211</v>
+        <v>0.8897514619825208</v>
       </c>
       <c r="I23" t="n">
-        <v>3.593673736748114</v>
+        <v>3.593673736748113</v>
       </c>
       <c r="J23" t="n">
-        <v>2.052175624490082</v>
+        <v>2.05217562449008</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8123775728374776</v>
+        <v>0.8123775728374775</v>
       </c>
       <c r="L23" t="n">
         <v>3.636871431425307</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6770496148934453</v>
+        <v>0.6770496148934444</v>
       </c>
       <c r="N23" t="n">
         <v>-0.1180557826402207</v>
@@ -2378,22 +2378,22 @@
         <v>1.722842191032961</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5566359659847651</v>
+        <v>0.5566359659847646</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.09350332458938282</v>
+        <v>-0.09350332458938238</v>
       </c>
       <c r="X23" t="n">
-        <v>1.459925442399066</v>
+        <v>1.459925442399067</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.1746823174830947</v>
+        <v>0.1746823174830945</v>
       </c>
       <c r="Z23" t="n">
         <v>-0.04344919879862488</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.6364310387493179</v>
+        <v>0.6364310387493181</v>
       </c>
     </row>
     <row r="24">
@@ -2410,25 +2410,25 @@
         <v>0.1444847983116018</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01544515971641772</v>
+        <v>0.01544515971641774</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3384990178573466</v>
+        <v>0.3384990178573467</v>
       </c>
       <c r="G24" t="n">
         <v>1.017452671804289</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3621991515798222</v>
+        <v>0.3621991515798219</v>
       </c>
       <c r="I24" t="n">
-        <v>1.861824849550639</v>
+        <v>1.861824849550638</v>
       </c>
       <c r="J24" t="n">
         <v>1.948859613369808</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8504810634045361</v>
+        <v>0.850481063404536</v>
       </c>
       <c r="L24" t="n">
         <v>3.371206550302318</v>
@@ -2440,7 +2440,7 @@
         <v>1.027740435623415</v>
       </c>
       <c r="O24" t="n">
-        <v>4.045343329998652</v>
+        <v>4.045343329998651</v>
       </c>
       <c r="P24" t="n">
         <v>2.493916907662607</v>
@@ -2455,7 +2455,7 @@
         <v>2.257120717965685</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9555226437449443</v>
+        <v>0.9555226437449446</v>
       </c>
       <c r="U24" t="n">
         <v>3.901933549825073</v>
@@ -2464,13 +2464,13 @@
         <v>1.523792523813158</v>
       </c>
       <c r="W24" t="n">
-        <v>0.5223171371885906</v>
+        <v>0.5223171371885909</v>
       </c>
       <c r="X24" t="n">
         <v>2.782393987068605</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3962110159569296</v>
+        <v>0.3962110159569295</v>
       </c>
       <c r="Z24" t="n">
         <v>0.004298935960034792</v>
@@ -2499,22 +2499,22 @@
         <v>-0.7120523921878682</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.9003160678897388</v>
+        <v>-0.9003160678897384</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.6247676520099985</v>
+        <v>-0.6247676520099983</v>
       </c>
       <c r="I25" t="n">
         <v>-1.145974434110856</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01173766652871722</v>
+        <v>0.0117376665287181</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.3022266767244286</v>
+        <v>-0.302226676724429</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5334773517968028</v>
+        <v>0.5334773517968037</v>
       </c>
       <c r="M25" t="n">
         <v>2.088765174287056</v>
@@ -2547,7 +2547,7 @@
         <v>1.914703115663074</v>
       </c>
       <c r="W25" t="n">
-        <v>0.7818097780662686</v>
+        <v>0.7818097780662687</v>
       </c>
       <c r="X25" t="n">
         <v>3.327180481974036</v>
@@ -2600,13 +2600,13 @@
         <v>3.271723475704528</v>
       </c>
       <c r="M26" t="n">
-        <v>1.510771289384361</v>
+        <v>1.51077128938436</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4381524410986013</v>
+        <v>0.4381524410986011</v>
       </c>
       <c r="O26" t="n">
-        <v>2.934170493109224</v>
+        <v>2.934170493109225</v>
       </c>
       <c r="P26" t="n">
         <v>1.453884141747825</v>
@@ -2630,16 +2630,16 @@
         <v>1.046844809032007</v>
       </c>
       <c r="W26" t="n">
-        <v>0.214422233133607</v>
+        <v>0.2144222331336072</v>
       </c>
       <c r="X26" t="n">
         <v>2.141843279002156</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2843012563235784</v>
+        <v>0.2843012563235783</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.0135186798365499</v>
+        <v>-0.01351867983654989</v>
       </c>
       <c r="AA26" t="n">
         <v>0.8216989274857682</v>
@@ -2665,7 +2665,7 @@
         <v>3.333479598605559</v>
       </c>
       <c r="G27" t="n">
-        <v>6.250227658910385</v>
+        <v>6.250227658910383</v>
       </c>
       <c r="H27" t="n">
         <v>3.423009121851539</v>
@@ -2674,7 +2674,7 @@
         <v>9.569196917697983</v>
       </c>
       <c r="J27" t="n">
-        <v>8.459070283130126</v>
+        <v>8.459070283130124</v>
       </c>
       <c r="K27" t="n">
         <v>4.957027519750545</v>
@@ -2698,7 +2698,7 @@
         <v>3.444030223480131</v>
       </c>
       <c r="R27" t="n">
-        <v>8.743670290553174</v>
+        <v>8.743670290553176</v>
       </c>
       <c r="S27" t="n">
         <v>4.342996142273753</v>
@@ -2707,7 +2707,7 @@
         <v>2.368771100120461</v>
       </c>
       <c r="U27" t="n">
-        <v>6.615789661325784</v>
+        <v>6.615789661325785</v>
       </c>
       <c r="V27" t="n">
         <v>2.424455499915798</v>
@@ -2719,7 +2719,7 @@
         <v>4.054204318998972</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.5539677038636562</v>
+        <v>0.5539677038636563</v>
       </c>
       <c r="Z27" t="n">
         <v>0.002563638483400445</v>
@@ -2742,19 +2742,19 @@
         <v>0.04300211271475346</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00723635455067595</v>
+        <v>0.007236354550675922</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1027883580519199</v>
+        <v>0.10278835805192</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9805445987876863</v>
+        <v>0.9805445987876865</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4309453696194579</v>
+        <v>0.4309453696194578</v>
       </c>
       <c r="I28" t="n">
-        <v>1.635255878349401</v>
+        <v>1.6352558783494</v>
       </c>
       <c r="J28" t="n">
         <v>2.580774316193089</v>
@@ -2772,7 +2772,7 @@
         <v>2.254159898977586</v>
       </c>
       <c r="O28" t="n">
-        <v>6.446050525693138</v>
+        <v>6.446050525693137</v>
       </c>
       <c r="P28" t="n">
         <v>4.393044069573133</v>
@@ -2784,7 +2784,7 @@
         <v>6.68266657073078</v>
       </c>
       <c r="S28" t="n">
-        <v>3.671592340109202</v>
+        <v>3.671592340109203</v>
       </c>
       <c r="T28" t="n">
         <v>1.918811882493966</v>
@@ -2802,7 +2802,7 @@
         <v>3.866941891399295</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.5673247989155219</v>
+        <v>0.567324798915522</v>
       </c>
       <c r="Z28" t="n">
         <v>0.04170355725837393</v>
@@ -2828,19 +2828,19 @@
         <v>0.4164672390757342</v>
       </c>
       <c r="F29" t="n">
-        <v>2.115519336628533</v>
+        <v>2.115519336628532</v>
       </c>
       <c r="G29" t="n">
-        <v>3.008257344860114</v>
+        <v>3.008257344860112</v>
       </c>
       <c r="H29" t="n">
         <v>1.403797889106916</v>
       </c>
       <c r="I29" t="n">
-        <v>5.09784943341196</v>
+        <v>5.097849433411957</v>
       </c>
       <c r="J29" t="n">
-        <v>2.974070546015229</v>
+        <v>2.974070546015227</v>
       </c>
       <c r="K29" t="n">
         <v>1.360181765254936</v>
@@ -2849,49 +2849,49 @@
         <v>4.97829752562497</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8170006049261227</v>
+        <v>0.8170006049261218</v>
       </c>
       <c r="N29" t="n">
         <v>-0.01517935702569062</v>
       </c>
       <c r="O29" t="n">
-        <v>1.988197419736977</v>
+        <v>1.988197419736978</v>
       </c>
       <c r="P29" t="n">
         <v>0.1557565505707066</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.5168557238917066</v>
+        <v>-0.5168557238917062</v>
       </c>
       <c r="R29" t="n">
-        <v>1.204820613761179</v>
+        <v>1.20482061376118</v>
       </c>
       <c r="S29" t="n">
-        <v>0.3478877476254323</v>
+        <v>0.3478877476254327</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.347683671085659</v>
+        <v>-0.3476836710856586</v>
       </c>
       <c r="U29" t="n">
-        <v>1.370844090925793</v>
+        <v>1.370844090925794</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3633908581041556</v>
+        <v>0.3633908581041552</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.223244536083554</v>
+        <v>-0.2232445360835538</v>
       </c>
       <c r="X29" t="n">
-        <v>1.194426716369124</v>
+        <v>1.194426716369125</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1257946158297636</v>
+        <v>0.1257946158297635</v>
       </c>
       <c r="Z29" t="n">
         <v>-0.06186798103593894</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.556928630082747</v>
+        <v>0.5569286300827471</v>
       </c>
     </row>
     <row r="30">
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8364901390632455</v>
+        <v>0.8364901390632454</v>
       </c>
       <c r="E30" t="n">
         <v>0.3295670211236705</v>
@@ -2923,7 +2923,7 @@
         <v>4.005908128278179</v>
       </c>
       <c r="J30" t="n">
-        <v>3.460995139487577</v>
+        <v>3.460995139487576</v>
       </c>
       <c r="K30" t="n">
         <v>1.793843127640841</v>
@@ -2938,7 +2938,7 @@
         <v>1.773011625198301</v>
       </c>
       <c r="O30" t="n">
-        <v>5.504190501820405</v>
+        <v>5.504190501820406</v>
       </c>
       <c r="P30" t="n">
         <v>3.119027870690795</v>
@@ -2959,13 +2959,13 @@
         <v>4.325381113027303</v>
       </c>
       <c r="V30" t="n">
-        <v>1.634141715232228</v>
+        <v>1.634141715232227</v>
       </c>
       <c r="W30" t="n">
         <v>0.5707755987572407</v>
       </c>
       <c r="X30" t="n">
-        <v>2.953997935880131</v>
+        <v>2.953997935880132</v>
       </c>
       <c r="Y30" t="n">
         <v>0.4069091410943176</v>
@@ -2997,16 +2997,16 @@
         <v>0.8831116521896449</v>
       </c>
       <c r="G31" t="n">
-        <v>1.938648755963292</v>
+        <v>1.938648755963293</v>
       </c>
       <c r="H31" t="n">
         <v>1.116553141430913</v>
       </c>
       <c r="I31" t="n">
-        <v>2.914242877977496</v>
+        <v>2.914242877977497</v>
       </c>
       <c r="J31" t="n">
-        <v>3.901253681064526</v>
+        <v>3.901253681064527</v>
       </c>
       <c r="K31" t="n">
         <v>2.198954812379721</v>
@@ -3021,7 +3021,7 @@
         <v>3.555639312291293</v>
       </c>
       <c r="O31" t="n">
-        <v>9.021006193803736</v>
+        <v>9.021006193803737</v>
       </c>
       <c r="P31" t="n">
         <v>6.087121469269841</v>
@@ -3083,10 +3083,10 @@
         <v>1.407635329215056</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7910879102411089</v>
+        <v>0.791087910241109</v>
       </c>
       <c r="I32" t="n">
-        <v>2.047490269879465</v>
+        <v>2.047490269879466</v>
       </c>
       <c r="J32" t="n">
         <v>3.989593831190585</v>
@@ -3095,7 +3095,7 @@
         <v>2.303655590604322</v>
       </c>
       <c r="L32" t="n">
-        <v>5.956937579562885</v>
+        <v>5.956937579562886</v>
       </c>
       <c r="M32" t="n">
         <v>6.999433330240006</v>
@@ -3104,7 +3104,7 @@
         <v>4.145227306816107</v>
       </c>
       <c r="O32" t="n">
-        <v>10.13217903069317</v>
+        <v>10.13217903069316</v>
       </c>
       <c r="P32" t="n">
         <v>7.127154235184623</v>
@@ -3119,13 +3119,13 @@
         <v>5.658395695836582</v>
       </c>
       <c r="T32" t="n">
-        <v>3.271241136438018</v>
+        <v>3.271241136438017</v>
       </c>
       <c r="U32" t="n">
         <v>8.356831119851366</v>
       </c>
       <c r="V32" t="n">
-        <v>3.384050475185798</v>
+        <v>3.384050475185799</v>
       </c>
       <c r="W32" t="n">
         <v>1.672695746597687</v>
@@ -3134,7 +3134,7 @@
         <v>5.36101438488036</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.7995516225267449</v>
+        <v>0.7995516225267452</v>
       </c>
       <c r="Z32" t="n">
         <v>0.0886010980872256</v>
@@ -3163,7 +3163,7 @@
         <v>1.16300823275198</v>
       </c>
       <c r="G33" t="n">
-        <v>2.879469195637709</v>
+        <v>2.879469195637708</v>
       </c>
       <c r="H33" t="n">
         <v>1.548347467237368</v>
@@ -3172,7 +3172,7 @@
         <v>4.41731435530895</v>
       </c>
       <c r="J33" t="n">
-        <v>5.009812810171267</v>
+        <v>5.009812810171266</v>
       </c>
       <c r="K33" t="n">
         <v>2.860957715385275</v>
@@ -3217,7 +3217,7 @@
         <v>4.427386865092876</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.6402813751019744</v>
+        <v>0.6402813751019745</v>
       </c>
       <c r="Z33" t="n">
         <v>0.04428943127633332</v>
@@ -3246,7 +3246,7 @@
         <v>2.776442468549651</v>
       </c>
       <c r="G34" t="n">
-        <v>4.858231248578469</v>
+        <v>4.858231248578468</v>
       </c>
       <c r="H34" t="n">
         <v>2.548820154105493</v>
@@ -3255,7 +3255,7 @@
         <v>7.652786829504074</v>
       </c>
       <c r="J34" t="n">
-        <v>6.128355846607484</v>
+        <v>6.128355846607482</v>
       </c>
       <c r="K34" t="n">
         <v>3.427757772529723</v>
@@ -3294,13 +3294,13 @@
         <v>1.540194858548944</v>
       </c>
       <c r="W34" t="n">
-        <v>0.4894673041083811</v>
+        <v>0.489467304108381</v>
       </c>
       <c r="X34" t="n">
         <v>2.825630551547849</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.3706285819057643</v>
+        <v>0.3706285819057642</v>
       </c>
       <c r="Z34" t="n">
         <v>-0.02591512010813717</v>
@@ -3323,19 +3323,19 @@
         <v>0.5531831323864127</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1882354884682623</v>
+        <v>0.1882354884682624</v>
       </c>
       <c r="F35" t="n">
         <v>1.027360805853469</v>
       </c>
       <c r="G35" t="n">
-        <v>1.988379661766368</v>
+        <v>1.988379661766367</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8968086040337021</v>
+        <v>0.8968086040337018</v>
       </c>
       <c r="I35" t="n">
-        <v>3.366276601047582</v>
+        <v>3.366276601047581</v>
       </c>
       <c r="J35" t="n">
         <v>2.824088482999557</v>
@@ -3350,7 +3350,7 @@
         <v>2.514661692004371</v>
       </c>
       <c r="N35" t="n">
-        <v>1.125053566106946</v>
+        <v>1.125053566106947</v>
       </c>
       <c r="O35" t="n">
         <v>4.216301362815154</v>
@@ -3365,10 +3365,10 @@
         <v>3.939252953586449</v>
       </c>
       <c r="S35" t="n">
-        <v>1.998526303428604</v>
+        <v>1.998526303428605</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7780387705450675</v>
+        <v>0.7780387705450678</v>
       </c>
       <c r="U35" t="n">
         <v>3.556251797054657</v>
@@ -3377,13 +3377,13 @@
         <v>1.332757603976897</v>
       </c>
       <c r="W35" t="n">
-        <v>0.392581034639087</v>
+        <v>0.3925810346390871</v>
       </c>
       <c r="X35" t="n">
-        <v>2.523789782461436</v>
+        <v>2.523789782461437</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.3469415108381207</v>
+        <v>0.3469415108381206</v>
       </c>
       <c r="Z35" t="n">
         <v>-0.01210102908303089</v>
@@ -3412,7 +3412,7 @@
         <v>-0.4224873469706875</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02166022894067243</v>
+        <v>0.0216602289406731</v>
       </c>
       <c r="H36" t="n">
         <v>-0.0625380321754524</v>
@@ -3436,7 +3436,7 @@
         <v>2.145720178232057</v>
       </c>
       <c r="O36" t="n">
-        <v>6.276737712676441</v>
+        <v>6.27673771267644</v>
       </c>
       <c r="P36" t="n">
         <v>4.627027502540689</v>
@@ -3466,7 +3466,7 @@
         <v>4.139335138852011</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.615830697103375</v>
+        <v>0.6158306971033751</v>
       </c>
       <c r="Z36" t="n">
         <v>0.06214115668993637</v>
@@ -3495,28 +3495,28 @@
         <v>1.612336591984379</v>
       </c>
       <c r="G37" t="n">
-        <v>2.501329158342007</v>
+        <v>2.501329158342005</v>
       </c>
       <c r="H37" t="n">
-        <v>1.160584759235052</v>
+        <v>1.160584759235051</v>
       </c>
       <c r="I37" t="n">
         <v>4.232201044646319</v>
       </c>
       <c r="J37" t="n">
-        <v>2.875746488559694</v>
+        <v>2.875746488559693</v>
       </c>
       <c r="K37" t="n">
         <v>1.350683832891442</v>
       </c>
       <c r="L37" t="n">
-        <v>4.76802658001038</v>
+        <v>4.768026580010381</v>
       </c>
       <c r="M37" t="n">
         <v>1.662809374655605</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5521554569751288</v>
+        <v>0.5521554569751286</v>
       </c>
       <c r="O37" t="n">
         <v>3.102660696226017</v>
@@ -3540,16 +3540,16 @@
         <v>2.466706117658601</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8491793250627007</v>
+        <v>0.8491793250627004</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08467080375010039</v>
+        <v>0.0846708037501005</v>
       </c>
       <c r="X37" t="n">
-        <v>1.862555510126667</v>
+        <v>1.862555510126668</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2361771616012032</v>
+        <v>0.2361771616012031</v>
       </c>
       <c r="Z37" t="n">
         <v>-0.03597509646236072</v>
@@ -3578,13 +3578,13 @@
         <v>2.704317891717739</v>
       </c>
       <c r="G38" t="n">
-        <v>4.833365795676931</v>
+        <v>4.833365795676929</v>
       </c>
       <c r="H38" t="n">
         <v>2.658692422804099</v>
       </c>
       <c r="I38" t="n">
-        <v>7.426769967969031</v>
+        <v>7.426769967969032</v>
       </c>
       <c r="J38" t="n">
         <v>6.666938445639968</v>
@@ -3626,7 +3626,7 @@
         <v>2.32736743676282</v>
       </c>
       <c r="W38" t="n">
-        <v>0.9755772080601891</v>
+        <v>0.9755772080601889</v>
       </c>
       <c r="X38" t="n">
         <v>3.923967498724086</v>
@@ -3661,16 +3661,16 @@
         <v>2.508970383710925</v>
       </c>
       <c r="G39" t="n">
-        <v>4.388211135076965</v>
+        <v>4.388211135076963</v>
       </c>
       <c r="H39" t="n">
-        <v>2.236860806193993</v>
+        <v>2.236860806193992</v>
       </c>
       <c r="I39" t="n">
-        <v>7.013707411939674</v>
+        <v>7.013707411939672</v>
       </c>
       <c r="J39" t="n">
-        <v>5.398117086328668</v>
+        <v>5.398117086328666</v>
       </c>
       <c r="K39" t="n">
         <v>2.946550867769806</v>
@@ -3679,13 +3679,13 @@
         <v>8.294324466327094</v>
       </c>
       <c r="M39" t="n">
-        <v>3.768236336593319</v>
+        <v>3.768236336593318</v>
       </c>
       <c r="N39" t="n">
         <v>1.989891066689358</v>
       </c>
       <c r="O39" t="n">
-        <v>5.842816127853799</v>
+        <v>5.842816127853798</v>
       </c>
       <c r="P39" t="n">
         <v>2.651061004755683</v>
@@ -3697,16 +3697,16 @@
         <v>4.428699471635628</v>
       </c>
       <c r="S39" t="n">
-        <v>2.042455467499592</v>
+        <v>2.042455467499593</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8046857041812572</v>
+        <v>0.8046857041812574</v>
       </c>
       <c r="U39" t="n">
         <v>3.608752218139466</v>
       </c>
       <c r="V39" t="n">
-        <v>1.243231123382312</v>
+        <v>1.243231123382311</v>
       </c>
       <c r="W39" t="n">
         <v>0.3112829578795627</v>
@@ -3715,7 +3715,7 @@
         <v>2.409211440974701</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.3098973447186115</v>
+        <v>0.3098973447186114</v>
       </c>
       <c r="Z39" t="n">
         <v>-0.0374268568328981</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1843628316140578</v>
+        <v>-0.1843628316140579</v>
       </c>
       <c r="E40" t="n">
         <v>-0.1333625432762361</v>
@@ -3744,13 +3744,13 @@
         <v>-0.208869647543715</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.3933878813716323</v>
+        <v>-0.3933878813716314</v>
       </c>
       <c r="H40" t="n">
         <v>-0.3815545221381338</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.2803260453452157</v>
+        <v>-0.2803260453452161</v>
       </c>
       <c r="J40" t="n">
         <v>0.1100617239842525</v>
@@ -3762,7 +3762,7 @@
         <v>0.7437482974113925</v>
       </c>
       <c r="M40" t="n">
-        <v>1.242956404557574</v>
+        <v>1.242956404557573</v>
       </c>
       <c r="N40" t="n">
         <v>0.2435261801315387</v>
@@ -3783,7 +3783,7 @@
         <v>1.988238360673755</v>
       </c>
       <c r="T40" t="n">
-        <v>0.773967842386136</v>
+        <v>0.7739678423861363</v>
       </c>
       <c r="U40" t="n">
         <v>3.522700417980103</v>
@@ -3792,19 +3792,19 @@
         <v>1.428914648704529</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4738944382326143</v>
+        <v>0.4738944382326145</v>
       </c>
       <c r="X40" t="n">
         <v>2.659051688216493</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.3828402665611962</v>
+        <v>0.3828402665611961</v>
       </c>
       <c r="Z40" t="n">
         <v>0.01928125024958147</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.9843810632528099</v>
+        <v>0.9843810632528101</v>
       </c>
     </row>
     <row r="41">
@@ -3827,16 +3827,16 @@
         <v>-0.7841769690197801</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.9251815207912766</v>
+        <v>-0.9251815207912752</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.514895383311393</v>
+        <v>-0.5148953833113927</v>
       </c>
       <c r="I41" t="n">
         <v>-1.371991295645898</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5503202655612021</v>
+        <v>0.5503202655612034</v>
       </c>
       <c r="K41" t="n">
         <v>0.1123829403779464</v>
@@ -3851,7 +3851,7 @@
         <v>2.026153867224531</v>
       </c>
       <c r="O41" t="n">
-        <v>6.10907011945955</v>
+        <v>6.109070119459551</v>
       </c>
       <c r="P41" t="n">
         <v>4.870655492426158</v>
@@ -3878,7 +3878,7 @@
         <v>1.267919682018077</v>
       </c>
       <c r="X41" t="n">
-        <v>4.425517429150274</v>
+        <v>4.425517429150273</v>
       </c>
       <c r="Y41" t="n">
         <v>0.6635729883602723</v>
@@ -3910,7 +3910,7 @@
         <v>1.666190977396133</v>
       </c>
       <c r="G42" t="n">
-        <v>3.386397382155816</v>
+        <v>3.386397382155815</v>
       </c>
       <c r="H42" t="n">
         <v>1.791560597109233</v>
@@ -3919,7 +3919,7 @@
         <v>5.28296274407459</v>
       </c>
       <c r="J42" t="n">
-        <v>5.108136867626802</v>
+        <v>5.108136867626801</v>
       </c>
       <c r="K42" t="n">
         <v>2.870455647748769</v>
@@ -3934,7 +3934,7 @@
         <v>3.113434104428999</v>
       </c>
       <c r="O42" t="n">
-        <v>8.073387900631685</v>
+        <v>8.073387900631683</v>
       </c>
       <c r="P42" t="n">
         <v>4.779349321174809</v>
@@ -3964,10 +3964,10 @@
         <v>3.759258071335333</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.5298988293305348</v>
+        <v>0.5298988293305349</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.0183965467027551</v>
+        <v>0.01839654670275511</v>
       </c>
       <c r="AA42" t="n">
         <v>1.257631462283934</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8883698120383861</v>
+        <v>0.8883698120383859</v>
       </c>
       <c r="E43" t="n">
         <v>0.3531833294686133</v>
@@ -4011,13 +4011,13 @@
         <v>5.379156762768485</v>
       </c>
       <c r="M43" t="n">
-        <v>3.470203713670114</v>
+        <v>3.470203713670113</v>
       </c>
       <c r="N43" t="n">
         <v>1.767448330067302</v>
       </c>
       <c r="O43" t="n">
-        <v>5.505013111720308</v>
+        <v>5.505013111720309</v>
       </c>
       <c r="P43" t="n">
         <v>3.123850149149752</v>
@@ -4050,7 +4050,7 @@
         <v>0.4065273376288397</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.005467159224475181</v>
+        <v>0.005467159224475184</v>
       </c>
       <c r="AA43" t="n">
         <v>1.036907206059426</v>
@@ -4076,16 +4076,16 @@
         <v>-0.8438770501280831</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.479246647519902</v>
+        <v>-0.4792466475199006</v>
       </c>
       <c r="H44" t="n">
         <v>-0.2851881367178322</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.7340160974138881</v>
+        <v>-0.7340160974138876</v>
       </c>
       <c r="J44" t="n">
-        <v>1.467223233421611</v>
+        <v>1.467223233421612</v>
       </c>
       <c r="K44" t="n">
         <v>0.707788555725958</v>
@@ -4118,7 +4118,7 @@
         <v>2.685495649566008</v>
       </c>
       <c r="U44" t="n">
-        <v>7.214785019370503</v>
+        <v>7.214785019370502</v>
       </c>
       <c r="V44" t="n">
         <v>2.989998676866188</v>
@@ -4130,7 +4130,7 @@
         <v>4.814358454032327</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.7258314394093367</v>
+        <v>0.7258314394093368</v>
       </c>
       <c r="Z44" t="n">
         <v>0.09005285845776298</v>
@@ -4159,7 +4159,7 @@
         <v>3.125707594875135</v>
       </c>
       <c r="G45" t="n">
-        <v>5.334272672137505</v>
+        <v>5.334272672137504</v>
       </c>
       <c r="H45" t="n">
         <v>2.881342527346478</v>
@@ -4168,7 +4168,7 @@
         <v>8.292142301901574</v>
       </c>
       <c r="J45" t="n">
-        <v>6.811928554990901</v>
+        <v>6.811928554990899</v>
       </c>
       <c r="K45" t="n">
         <v>3.880414999642616</v>
@@ -4198,7 +4198,7 @@
         <v>3.220760155983455</v>
       </c>
       <c r="T45" t="n">
-        <v>1.605541740048575</v>
+        <v>1.605541740048574</v>
       </c>
       <c r="U45" t="n">
         <v>5.128061808074504</v>
@@ -4207,7 +4207,7 @@
         <v>1.839368781759926</v>
       </c>
       <c r="W45" t="n">
-        <v>0.6676567592818671</v>
+        <v>0.667656759281867</v>
       </c>
       <c r="X45" t="n">
         <v>3.24894418354377</v>
@@ -4242,16 +4242,16 @@
         <v>0.2760429056802801</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9737430760587455</v>
+        <v>0.9737430760587465</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6025067143065177</v>
+        <v>0.6025067143065181</v>
       </c>
       <c r="I46" t="n">
-        <v>1.410067181313651</v>
+        <v>1.410067181313653</v>
       </c>
       <c r="J46" t="n">
-        <v>2.979358759539379</v>
+        <v>2.97935875953938</v>
       </c>
       <c r="K46" t="n">
         <v>1.651150619962263</v>
@@ -4260,7 +4260,7 @@
         <v>4.516028410765432</v>
       </c>
       <c r="M46" t="n">
-        <v>5.989499380000711</v>
+        <v>5.989499380000712</v>
       </c>
       <c r="N46" t="n">
         <v>3.452762886676763</v>
@@ -4278,7 +4278,7 @@
         <v>9.156691936994871</v>
       </c>
       <c r="S46" t="n">
-        <v>5.142132664446285</v>
+        <v>5.142132664446284</v>
       </c>
       <c r="T46" t="n">
         <v>2.919727797038418</v>
@@ -4296,7 +4296,7 @@
         <v>4.985962402843853</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.7365295645467247</v>
+        <v>0.7365295645467248</v>
       </c>
       <c r="Z46" t="n">
         <v>0.08920226452795499</v>
@@ -4325,13 +4325,13 @@
         <v>1.77974544391619</v>
       </c>
       <c r="G47" t="n">
-        <v>3.82553073269825</v>
+        <v>3.825530732698249</v>
       </c>
       <c r="H47" t="n">
-        <v>2.192829188389854</v>
+        <v>2.192829188389855</v>
       </c>
       <c r="I47" t="n">
-        <v>5.69574924527085</v>
+        <v>5.695749245270852</v>
       </c>
       <c r="J47" t="n">
         <v>6.423624278833501</v>
@@ -4379,7 +4379,7 @@
         <v>5.267119607661945</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.7613620460108019</v>
+        <v>0.7613620460108022</v>
       </c>
       <c r="Z47" t="n">
         <v>0.06933172192010356</v>
@@ -4408,7 +4408,7 @@
         <v>1.983694678688317</v>
       </c>
       <c r="G48" t="n">
-        <v>3.429326765229951</v>
+        <v>3.429326765229949</v>
       </c>
       <c r="H48" t="n">
         <v>1.743377404399082</v>
@@ -4417,7 +4417,7 @@
         <v>5.509807770108926</v>
       </c>
       <c r="J48" t="n">
-        <v>4.429556112908122</v>
+        <v>4.429556112908121</v>
       </c>
       <c r="K48" t="n">
         <v>2.370196997705323</v>
@@ -4447,7 +4447,7 @@
         <v>2.323477362914099</v>
       </c>
       <c r="T48" t="n">
-        <v>0.9972202476993062</v>
+        <v>0.9972202476993063</v>
       </c>
       <c r="U48" t="n">
         <v>3.967066665583385</v>
@@ -4459,10 +4459,10 @@
         <v>0.4410292783184017</v>
       </c>
       <c r="X48" t="n">
-        <v>2.681604688427416</v>
+        <v>2.681604688427417</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.3584032429064646</v>
+        <v>0.3584032429064645</v>
       </c>
       <c r="Z48" t="n">
         <v>-0.01698925740133565</v>
@@ -4485,19 +4485,19 @@
         <v>-0.6968205116391499</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.353385488717966</v>
+        <v>-0.3533854887179662</v>
       </c>
       <c r="F49" t="n">
         <v>-1.061317518513352</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.376357491448776</v>
+        <v>-1.376357491448775</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.9572900252509835</v>
+        <v>-0.9572900252509837</v>
       </c>
       <c r="I49" t="n">
-        <v>-1.785329906508354</v>
+        <v>-1.785329906508355</v>
       </c>
       <c r="J49" t="n">
         <v>-0.6718350418546999</v>
@@ -4509,10 +4509,10 @@
         <v>-0.3653622816289852</v>
       </c>
       <c r="M49" t="n">
-        <v>1.121136057382747</v>
+        <v>1.121136057382746</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1573396399100049</v>
+        <v>0.1573396399100044</v>
       </c>
       <c r="O49" t="n">
         <v>2.419651174859911</v>
@@ -4530,7 +4530,7 @@
         <v>2.22440529433341</v>
       </c>
       <c r="T49" t="n">
-        <v>0.9364010452678408</v>
+        <v>0.936401045267841</v>
       </c>
       <c r="U49" t="n">
         <v>3.855749476077016</v>
@@ -4539,13 +4539,13 @@
         <v>1.615529192452092</v>
       </c>
       <c r="W49" t="n">
-        <v>0.6036203228927826</v>
+        <v>0.6036203228927829</v>
       </c>
       <c r="X49" t="n">
         <v>2.903866849978114</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.432873378610961</v>
+        <v>0.4328733786109609</v>
       </c>
       <c r="Z49" t="n">
         <v>0.03164358090415038</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7823338057346718</v>
+        <v>0.782333805734672</v>
       </c>
       <c r="E50" t="n">
         <v>0.2669269012545842</v>
@@ -4574,16 +4574,16 @@
         <v>1.448750509010864</v>
       </c>
       <c r="G50" t="n">
-        <v>2.489286538226942</v>
+        <v>2.489286538226941</v>
       </c>
       <c r="H50" t="n">
-        <v>1.119458708576082</v>
+        <v>1.119458708576081</v>
       </c>
       <c r="I50" t="n">
         <v>4.231648934980123</v>
       </c>
       <c r="J50" t="n">
-        <v>2.969078592350491</v>
+        <v>2.969078592350489</v>
       </c>
       <c r="K50" t="n">
         <v>1.407783188185489</v>
@@ -4598,7 +4598,7 @@
         <v>0.563282047237126</v>
       </c>
       <c r="O50" t="n">
-        <v>3.101015476426212</v>
+        <v>3.101015476426211</v>
       </c>
       <c r="P50" t="n">
         <v>1.2054338734034</v>
@@ -4619,16 +4619,16 @@
         <v>2.454073422985098</v>
       </c>
       <c r="V50" t="n">
-        <v>0.8447589489740035</v>
+        <v>0.8447589489740033</v>
       </c>
       <c r="W50" t="n">
-        <v>0.08466058586076497</v>
+        <v>0.08466058586076519</v>
       </c>
       <c r="X50" t="n">
-        <v>1.84876646728112</v>
+        <v>1.848766467281121</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.2369407685321591</v>
+        <v>0.236940768532159</v>
       </c>
       <c r="Z50" t="n">
         <v>-0.04001273085085748</v>
@@ -4657,16 +4657,16 @@
         <v>-1.690479225401171</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.793219354682229</v>
+        <v>-2.793219354682228</v>
       </c>
       <c r="H51" t="n">
         <v>-1.721606724298425</v>
       </c>
       <c r="I51" t="n">
-        <v>-3.927756856237306</v>
+        <v>-3.927756856237307</v>
       </c>
       <c r="J51" t="n">
-        <v>-2.463966879344858</v>
+        <v>-2.463966879344857</v>
       </c>
       <c r="K51" t="n">
         <v>-1.869544033955769</v>
@@ -4675,19 +4675,19 @@
         <v>-2.915382029466816</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.01061824003137346</v>
+        <v>-0.01061824003137435</v>
       </c>
       <c r="N51" t="n">
         <v>-0.6213113204508733</v>
       </c>
       <c r="O51" t="n">
-        <v>0.9657396624375751</v>
+        <v>0.965739662437576</v>
       </c>
       <c r="P51" t="n">
         <v>1.521078920704392</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.458281847349608</v>
+        <v>0.4582818473496082</v>
       </c>
       <c r="R51" t="n">
         <v>2.973831833466683</v>
@@ -4696,22 +4696,22 @@
         <v>1.944309196602767</v>
       </c>
       <c r="T51" t="n">
-        <v>0.7473209087499464</v>
+        <v>0.7473209087499466</v>
       </c>
       <c r="U51" t="n">
         <v>3.470199996895295</v>
       </c>
       <c r="V51" t="n">
-        <v>1.518441129299115</v>
+        <v>1.518441129299114</v>
       </c>
       <c r="W51" t="n">
-        <v>0.5551925149921385</v>
+        <v>0.5551925149921388</v>
       </c>
       <c r="X51" t="n">
         <v>2.773630029703229</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.4198844326807055</v>
+        <v>0.4198844326807053</v>
       </c>
       <c r="Z51" t="n">
         <v>0.04460707799944867</v>
@@ -4740,16 +4740,16 @@
         <v>-0.6581980067761141</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01524784407593027</v>
+        <v>-0.01524784407592894</v>
       </c>
       <c r="H52" t="n">
-        <v>0.006208185864183258</v>
+        <v>0.006208185864183369</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.09521273468258507</v>
+        <v>-0.09521273468258418</v>
       </c>
       <c r="J52" t="n">
-        <v>2.244128045595825</v>
+        <v>2.244128045595826</v>
       </c>
       <c r="K52" t="n">
         <v>1.217545138132899</v>
@@ -4767,7 +4767,7 @@
         <v>8.677444908370926</v>
       </c>
       <c r="P52" t="n">
-        <v>6.526154664451215</v>
+        <v>6.526154664451216</v>
       </c>
       <c r="Q52" t="n">
         <v>3.850758983918865</v>
@@ -4791,10 +4791,10 @@
         <v>1.624262829752375</v>
       </c>
       <c r="X52" t="n">
-        <v>5.223883043182702</v>
+        <v>5.223883043182701</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.7869444800619674</v>
+        <v>0.7869444800619675</v>
       </c>
       <c r="Z52" t="n">
         <v>0.09954577798827552</v>
@@ -4823,16 +4823,16 @@
         <v>2.754349508171197</v>
       </c>
       <c r="G53" t="n">
-        <v>4.406275065249561</v>
+        <v>4.40627506524956</v>
       </c>
       <c r="H53" t="n">
         <v>2.298549882182447</v>
       </c>
       <c r="I53" t="n">
-        <v>7.014535576438967</v>
+        <v>7.014535576438966</v>
       </c>
       <c r="J53" t="n">
-        <v>5.258118930642473</v>
+        <v>5.258118930642472</v>
       </c>
       <c r="K53" t="n">
         <v>2.860901834828735</v>
@@ -4847,7 +4847,7 @@
         <v>1.973201181296362</v>
       </c>
       <c r="O53" t="n">
-        <v>5.845283957553507</v>
+        <v>5.845283957553508</v>
       </c>
       <c r="P53" t="n">
         <v>2.665527840132552</v>
@@ -4856,7 +4856,7 @@
         <v>1.206346436762257</v>
       </c>
       <c r="R53" t="n">
-        <v>4.442171387614222</v>
+        <v>4.442171387614223</v>
       </c>
       <c r="S53" t="n">
         <v>2.076096688815731</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3497268298587313</v>
+        <v>0.3497268298587312</v>
       </c>
       <c r="E54" t="n">
         <v>0.07088658157204494</v>
@@ -4909,22 +4909,22 @@
         <v>1.066403364935956</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3345789841991561</v>
+        <v>0.3345789841991559</v>
       </c>
       <c r="I54" t="n">
-        <v>2.088945930418074</v>
+        <v>2.088945930418072</v>
       </c>
       <c r="J54" t="n">
-        <v>1.223612806755731</v>
+        <v>1.22361280675573</v>
       </c>
       <c r="K54" t="n">
         <v>0.3216727357140661</v>
       </c>
       <c r="L54" t="n">
-        <v>2.450322347331834</v>
+        <v>2.450322347331835</v>
       </c>
       <c r="M54" t="n">
-        <v>0.5491857200993353</v>
+        <v>0.5491857200993344</v>
       </c>
       <c r="N54" t="n">
         <v>-0.2098056179927532</v>
@@ -4933,34 +4933,34 @@
         <v>1.646281354103973</v>
       </c>
       <c r="P54" t="n">
-        <v>0.6044343026699934</v>
+        <v>0.604434302669993</v>
       </c>
       <c r="Q54" t="n">
         <v>-0.2157775044728996</v>
       </c>
       <c r="R54" t="n">
-        <v>1.788503502116972</v>
+        <v>1.788503502116973</v>
       </c>
       <c r="S54" t="n">
-        <v>0.8650765766995931</v>
+        <v>0.8650765766995936</v>
       </c>
       <c r="T54" t="n">
-        <v>0.007284075314094585</v>
+        <v>0.007284075314095029</v>
       </c>
       <c r="U54" t="n">
         <v>2.062207596466625</v>
       </c>
       <c r="V54" t="n">
-        <v>0.7454606977766771</v>
+        <v>0.7454606977766769</v>
       </c>
       <c r="W54" t="n">
-        <v>0.03622766901545327</v>
+        <v>0.0362276690154536</v>
       </c>
       <c r="X54" t="n">
-        <v>1.711635125583461</v>
+        <v>1.711635125583462</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.2243336260673815</v>
+        <v>0.2243336260673813</v>
       </c>
       <c r="Z54" t="n">
         <v>-0.02906805094980758</v>
@@ -4992,13 +4992,13 @@
         <v>1.530402168379928</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6259753067811715</v>
+        <v>0.6259753067811713</v>
       </c>
       <c r="I55" t="n">
-        <v>2.727749293149377</v>
+        <v>2.727749293149376</v>
       </c>
       <c r="J55" t="n">
-        <v>2.000517618929945</v>
+        <v>2.000517618929944</v>
       </c>
       <c r="K55" t="n">
         <v>0.8314293181210066</v>
@@ -5007,16 +5007,16 @@
         <v>3.504038990863813</v>
       </c>
       <c r="M55" t="n">
-        <v>1.528901932242212</v>
+        <v>1.528901932242211</v>
       </c>
       <c r="N55" t="n">
-        <v>0.4548423264915975</v>
+        <v>0.4548423264915973</v>
       </c>
       <c r="O55" t="n">
         <v>2.931702663409515</v>
       </c>
       <c r="P55" t="n">
-        <v>1.439417306370957</v>
+        <v>1.439417306370956</v>
       </c>
       <c r="Q55" t="n">
         <v>0.3526313063296804</v>
@@ -5028,7 +5028,7 @@
         <v>1.437408310283455</v>
       </c>
       <c r="T55" t="n">
-        <v>0.3964240905091241</v>
+        <v>0.3964240905091243</v>
       </c>
       <c r="U55" t="n">
         <v>2.812387870429017</v>
@@ -5037,19 +5037,19 @@
         <v>1.040214244898961</v>
       </c>
       <c r="W55" t="n">
-        <v>0.214406906299604</v>
+        <v>0.2144069062996042</v>
       </c>
       <c r="X55" t="n">
         <v>2.121159714733836</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.2854466667200122</v>
+        <v>0.285446666720012</v>
       </c>
       <c r="Z55" t="n">
         <v>-0.01957513141929505</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.8272149051366179</v>
+        <v>0.827214905136618</v>
       </c>
     </row>
     <row r="56">
@@ -5114,7 +5114,7 @@
         <v>2.697091912884025</v>
       </c>
       <c r="U56" t="n">
-        <v>7.254652745781808</v>
+        <v>7.254652745781807</v>
       </c>
       <c r="V56" t="n">
         <v>2.896051820182905</v>
@@ -5126,7 +5126,7 @@
         <v>4.685991069700044</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.6895508802207833</v>
+        <v>0.6895508802207834</v>
       </c>
       <c r="Z56" t="n">
         <v>0.060689396319399</v>
@@ -5158,13 +5158,13 @@
         <v>1.413656639272588</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8116509355705938</v>
+        <v>0.8116509355705939</v>
       </c>
       <c r="I57" t="n">
-        <v>2.047766324712563</v>
+        <v>2.047766324712564</v>
       </c>
       <c r="J57" t="n">
-        <v>3.942927779295186</v>
+        <v>3.942927779295187</v>
       </c>
       <c r="K57" t="n">
         <v>2.275105912957298</v>
@@ -5209,13 +5209,13 @@
         <v>5.367908906303134</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.7991698190612671</v>
+        <v>0.7991698190612673</v>
       </c>
       <c r="Z57" t="n">
         <v>0.09061991528147398</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.713185626074255</v>
+        <v>1.713185626074256</v>
       </c>
     </row>
     <row r="58">
@@ -5238,16 +5238,16 @@
         <v>1.694129633471137</v>
       </c>
       <c r="G58" t="n">
-        <v>2.507350468399539</v>
+        <v>2.507350468399538</v>
       </c>
       <c r="H58" t="n">
-        <v>1.181147784564537</v>
+        <v>1.181147784564536</v>
       </c>
       <c r="I58" t="n">
-        <v>4.232477099479418</v>
+        <v>4.232477099479417</v>
       </c>
       <c r="J58" t="n">
-        <v>2.829080436664296</v>
+        <v>2.829080436664295</v>
       </c>
       <c r="K58" t="n">
         <v>1.322134155244418</v>
@@ -5256,16 +5256,16 @@
         <v>4.690588074957286</v>
       </c>
       <c r="M58" t="n">
-        <v>1.656765827036322</v>
+        <v>1.656765827036321</v>
       </c>
       <c r="N58" t="n">
-        <v>0.5465921618441301</v>
+        <v>0.5465921618441298</v>
       </c>
       <c r="O58" t="n">
-        <v>3.10348330612592</v>
+        <v>3.103483306125921</v>
       </c>
       <c r="P58" t="n">
-        <v>1.21990070878027</v>
+        <v>1.219900708780269</v>
       </c>
       <c r="Q58" t="n">
         <v>0.2200679248665005</v>
@@ -5274,7 +5274,7 @@
         <v>2.578772741663111</v>
       </c>
       <c r="S58" t="n">
-        <v>1.190027636185087</v>
+        <v>1.190027636185088</v>
       </c>
       <c r="T58" t="n">
         <v>0.2264655524683334</v>
@@ -5283,16 +5283,16 @@
         <v>2.473022464995353</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8513895131070492</v>
+        <v>0.851389513107049</v>
       </c>
       <c r="W58" t="n">
-        <v>0.08467591269476804</v>
+        <v>0.08467591269476815</v>
       </c>
       <c r="X58" t="n">
         <v>1.869450031549441</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.2357953581357253</v>
+        <v>0.2357953581357252</v>
       </c>
       <c r="Z58" t="n">
         <v>-0.03395627926811234</v>
@@ -5324,13 +5324,13 @@
         <v>1.468628642461788</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8045937935194127</v>
+        <v>0.8045937935194128</v>
       </c>
       <c r="I59" t="n">
-        <v>2.275163460413095</v>
+        <v>2.275163460413096</v>
       </c>
       <c r="J59" t="n">
-        <v>3.17101492078571</v>
+        <v>3.171014920785711</v>
       </c>
       <c r="K59" t="n">
         <v>1.717747907619805</v>
@@ -5398,31 +5398,31 @@
         <v>0.654665817983261</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1964442936340041</v>
+        <v>0.1964442936340042</v>
       </c>
       <c r="F60" t="n">
         <v>1.263071465658895</v>
       </c>
       <c r="G60" t="n">
-        <v>2.02528773478297</v>
+        <v>2.025287734782969</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8280623859940666</v>
+        <v>0.828062385994066</v>
       </c>
       <c r="I60" t="n">
-        <v>3.592845572248821</v>
+        <v>3.592845572248819</v>
       </c>
       <c r="J60" t="n">
-        <v>2.192173780176276</v>
+        <v>2.192173780176275</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8980266057785484</v>
+        <v>0.8980266057785483</v>
       </c>
       <c r="L60" t="n">
         <v>3.869186946584592</v>
       </c>
       <c r="M60" t="n">
-        <v>0.695180257751296</v>
+        <v>0.6951802577512951</v>
       </c>
       <c r="N60" t="n">
         <v>-0.1013658972472244</v>
@@ -5437,10 +5437,10 @@
         <v>-0.4022680706747499</v>
       </c>
       <c r="R60" t="n">
-        <v>1.487680780620013</v>
+        <v>1.487680780620014</v>
       </c>
       <c r="S60" t="n">
-        <v>0.5840546812850866</v>
+        <v>0.5840546812850871</v>
       </c>
       <c r="T60" t="n">
         <v>-0.1852504682039542</v>
@@ -5449,16 +5449,16 @@
         <v>1.703893149022706</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5500054018517191</v>
+        <v>0.5500054018517189</v>
       </c>
       <c r="W60" t="n">
-        <v>-0.09351865142338567</v>
+        <v>-0.09351865142338545</v>
       </c>
       <c r="X60" t="n">
         <v>1.439241878130746</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.1758277278795284</v>
+        <v>0.1758277278795282</v>
       </c>
       <c r="Z60" t="n">
         <v>-0.04950565038137002</v>
@@ -5496,7 +5496,7 @@
         <v>5.921766106805893</v>
       </c>
       <c r="J61" t="n">
-        <v>5.885041679801016</v>
+        <v>5.885041679801015</v>
       </c>
       <c r="K61" t="n">
         <v>3.38021223015571</v>
@@ -5511,7 +5511,7 @@
         <v>3.77808204891335</v>
       </c>
       <c r="O61" t="n">
-        <v>9.358809209937228</v>
+        <v>9.358809209937226</v>
       </c>
       <c r="P61" t="n">
         <v>5.614332324875773</v>
@@ -5541,7 +5541,7 @@
         <v>4.168782660485707</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.5910118699831655</v>
+        <v>0.5910118699831656</v>
       </c>
       <c r="Z61" t="n">
         <v>0.02788946623326764</v>
@@ -5579,7 +5579,7 @@
         <v>3.778510992577647</v>
       </c>
       <c r="J62" t="n">
-        <v>4.232907997997053</v>
+        <v>4.232907997997052</v>
       </c>
       <c r="K62" t="n">
         <v>2.351201132978334</v>
@@ -5594,7 +5594,7 @@
         <v>3.016120973945468</v>
       </c>
       <c r="O62" t="n">
-        <v>7.902429867815182</v>
+        <v>7.902429867815181</v>
       </c>
       <c r="P62" t="n">
         <v>5.003688197224452</v>
@@ -5624,7 +5624,7 @@
         <v>4.017862275942502</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.5791683344493437</v>
+        <v>0.5791683344493438</v>
       </c>
       <c r="Z62" t="n">
         <v>0.03479651174582079</v>
@@ -5647,13 +5647,13 @@
         <v>1.829372078566538</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7921302681093291</v>
+        <v>0.7921302681093292</v>
       </c>
       <c r="F63" t="n">
         <v>3.066007513766832</v>
       </c>
       <c r="G63" t="n">
-        <v>5.78020754540888</v>
+        <v>5.780207545408878</v>
       </c>
       <c r="H63" t="n">
         <v>3.111049773940039</v>
@@ -5662,7 +5662,7 @@
         <v>8.930117500133584</v>
       </c>
       <c r="J63" t="n">
-        <v>7.72883152285131</v>
+        <v>7.728831522851308</v>
       </c>
       <c r="K63" t="n">
         <v>4.475820614990628</v>
@@ -5674,10 +5674,10 @@
         <v>6.707384973021949</v>
       </c>
       <c r="N63" t="n">
-        <v>3.983834900142409</v>
+        <v>3.98383490014241</v>
       </c>
       <c r="O63" t="n">
-        <v>9.699080055770427</v>
+        <v>9.699080055770425</v>
       </c>
       <c r="P63" t="n">
         <v>5.156010015858573</v>
@@ -5701,19 +5701,19 @@
         <v>2.127491764749165</v>
       </c>
       <c r="W63" t="n">
-        <v>0.8458206697320148</v>
+        <v>0.8458206697320146</v>
       </c>
       <c r="X63" t="n">
         <v>3.637785208425824</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.4932364666765034</v>
+        <v>0.4932364666765036</v>
       </c>
       <c r="Z63" t="n">
         <v>-0.008948098241360482</v>
       </c>
       <c r="AA63" t="n">
-        <v>1.206230784237622</v>
+        <v>1.206230784237621</v>
       </c>
     </row>
     <row r="64">
@@ -5739,40 +5739,40 @@
         <v>2.031309044840502</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8486254113235514</v>
+        <v>0.8486254113235511</v>
       </c>
       <c r="I64" t="n">
-        <v>3.593121627081919</v>
+        <v>3.593121627081917</v>
       </c>
       <c r="J64" t="n">
-        <v>2.145507728280878</v>
+        <v>2.145507728280877</v>
       </c>
       <c r="K64" t="n">
-        <v>0.8694769281315249</v>
+        <v>0.8694769281315248</v>
       </c>
       <c r="L64" t="n">
         <v>3.791748441531497</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6891367101320127</v>
+        <v>0.6891367101320118</v>
       </c>
       <c r="N64" t="n">
         <v>-0.1069291923782232</v>
       </c>
       <c r="O64" t="n">
-        <v>1.816416777020572</v>
+        <v>1.816416777020573</v>
       </c>
       <c r="P64" t="n">
         <v>0.3752731481613933</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.3842923424285267</v>
+        <v>-0.3842923424285263</v>
       </c>
       <c r="R64" t="n">
         <v>1.492171419279545</v>
       </c>
       <c r="S64" t="n">
-        <v>0.5952684217237998</v>
+        <v>0.5952684217238002</v>
       </c>
       <c r="T64" t="n">
         <v>-0.1777251330448681</v>
@@ -5781,19 +5781,19 @@
         <v>1.710209496359458</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5522155898960677</v>
+        <v>0.5522155898960674</v>
       </c>
       <c r="W64" t="n">
-        <v>-0.09351354247871813</v>
+        <v>-0.09351354247871768</v>
       </c>
       <c r="X64" t="n">
-        <v>1.446136399553519</v>
+        <v>1.44613639955352</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.1754459244140505</v>
+        <v>0.1754459244140503</v>
       </c>
       <c r="Z64" t="n">
-        <v>-0.04748683318712165</v>
+        <v>-0.04748683318712164</v>
       </c>
       <c r="AA64" t="n">
         <v>0.6401083571832178</v>
@@ -5819,16 +5819,16 @@
         <v>-0.3907259219373876</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4547722694255742</v>
+        <v>0.4547722694255749</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3181675337756835</v>
+        <v>0.3181675337756836</v>
       </c>
       <c r="I65" t="n">
-        <v>0.5438666828818159</v>
+        <v>0.5438666828818168</v>
       </c>
       <c r="J65" t="n">
-        <v>2.974366805874641</v>
+        <v>2.974366805874642</v>
       </c>
       <c r="K65" t="n">
         <v>1.698752042892816</v>
@@ -5837,7 +5837,7 @@
         <v>4.460634475257033</v>
       </c>
       <c r="M65" t="n">
-        <v>6.847395244968761</v>
+        <v>6.847395244968762</v>
       </c>
       <c r="N65" t="n">
         <v>4.03122429093958</v>
@@ -5858,7 +5858,7 @@
         <v>5.950631331689801</v>
       </c>
       <c r="T65" t="n">
-        <v>3.471301015115153</v>
+        <v>3.471301015115152</v>
       </c>
       <c r="U65" t="n">
         <v>8.721461914632037</v>
@@ -5873,7 +5873,7 @@
         <v>5.640302153755849</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.8476757172491202</v>
+        <v>0.8476757172491203</v>
       </c>
       <c r="Z65" t="n">
         <v>0.1110575147130364</v>
@@ -5896,13 +5896,13 @@
         <v>1.165337768988905</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4783747241163243</v>
+        <v>0.4783747241163244</v>
       </c>
       <c r="F66" t="n">
         <v>2.005787639066771</v>
       </c>
       <c r="G66" t="n">
-        <v>3.881282948558858</v>
+        <v>3.881282948558856</v>
       </c>
       <c r="H66" t="n">
         <v>1.993647676322128</v>
@@ -5911,7 +5911,7 @@
         <v>6.148059023174033</v>
       </c>
       <c r="J66" t="n">
-        <v>5.299793028873133</v>
+        <v>5.299793028873132</v>
       </c>
       <c r="K66" t="n">
         <v>2.937052935406311</v>
@@ -5920,13 +5920,13 @@
         <v>8.084053520712505</v>
       </c>
       <c r="M66" t="n">
-        <v>4.614045106322802</v>
+        <v>4.614045106322801</v>
       </c>
       <c r="N66" t="n">
         <v>2.557225880690178</v>
       </c>
       <c r="O66" t="n">
-        <v>6.957279404342839</v>
+        <v>6.957279404342838</v>
       </c>
       <c r="P66" t="n">
         <v>3.71038288450629</v>
@@ -5994,13 +5994,13 @@
         <v>4.644711491009482</v>
       </c>
       <c r="J67" t="n">
-        <v>4.237899951661791</v>
+        <v>4.23789995166179</v>
       </c>
       <c r="K67" t="n">
         <v>2.303599710047781</v>
       </c>
       <c r="L67" t="n">
-        <v>6.510311911353558</v>
+        <v>6.510311911353559</v>
       </c>
       <c r="M67" t="n">
         <v>4.455963473432274</v>
@@ -6065,19 +6065,19 @@
         <v>-0.05503744790416232</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1528199745053777</v>
+        <v>0.1528199745053775</v>
       </c>
       <c r="G68" t="n">
-        <v>0.553453868360317</v>
+        <v>0.5534538683603167</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07080282899780677</v>
+        <v>0.07080282899780643</v>
       </c>
       <c r="I68" t="n">
-        <v>1.223021486819336</v>
+        <v>1.223021486819335</v>
       </c>
       <c r="J68" t="n">
-        <v>1.171954801195595</v>
+        <v>1.171954801195594</v>
       </c>
       <c r="K68" t="n">
         <v>0.3407244809975953</v>
@@ -6086,13 +6086,13 @@
         <v>2.31748990677034</v>
       </c>
       <c r="M68" t="n">
-        <v>1.401038037448102</v>
+        <v>1.401038037448101</v>
       </c>
       <c r="N68" t="n">
-        <v>0.3630924911390649</v>
+        <v>0.3630924911390645</v>
       </c>
       <c r="O68" t="n">
-        <v>2.75992202069311</v>
+        <v>2.759922020693109</v>
       </c>
       <c r="P68" t="n">
         <v>1.658933903961644</v>
@@ -6107,7 +6107,7 @@
         <v>1.684788984381823</v>
       </c>
       <c r="T68" t="n">
-        <v>0.5663826285499149</v>
+        <v>0.5663826285499152</v>
       </c>
       <c r="U68" t="n">
         <v>3.151753275862681</v>
@@ -6116,13 +6116,13 @@
         <v>1.229038976690874</v>
       </c>
       <c r="W68" t="n">
-        <v>0.34413789990444</v>
+        <v>0.3441378999044402</v>
       </c>
       <c r="X68" t="n">
         <v>2.37286939791823</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.335097975304299</v>
+        <v>0.3350979753042989</v>
       </c>
       <c r="Z68" t="n">
         <v>-0.005193983570477748</v>
@@ -6145,25 +6145,25 @@
         <v>0.9623723977952083</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4619571137848408</v>
+        <v>0.4619571137848407</v>
       </c>
       <c r="F69" t="n">
         <v>1.534366319455918</v>
       </c>
       <c r="G69" t="n">
-        <v>3.807466802525653</v>
+        <v>3.807466802525652</v>
       </c>
       <c r="H69" t="n">
         <v>2.1311401124014</v>
       </c>
       <c r="I69" t="n">
-        <v>5.694921080771556</v>
+        <v>5.694921080771557</v>
       </c>
       <c r="J69" t="n">
         <v>6.563622434519695</v>
       </c>
       <c r="K69" t="n">
-        <v>3.880470880199157</v>
+        <v>3.880470880199156</v>
       </c>
       <c r="L69" t="n">
         <v>9.616067906441094</v>
@@ -6178,7 +6178,7 @@
         <v>11.75869379573181</v>
       </c>
       <c r="P69" t="n">
-        <v>7.508637208327343</v>
+        <v>7.508637208327342</v>
       </c>
       <c r="Q69" t="n">
         <v>4.482032091657144</v>
@@ -6202,10 +6202,10 @@
         <v>1.591397669838162</v>
       </c>
       <c r="X69" t="n">
-        <v>5.246436043393625</v>
+        <v>5.246436043393624</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.7625074564072357</v>
+        <v>0.7625074564072359</v>
       </c>
       <c r="Z69" t="n">
         <v>0.0632752703373584</v>
@@ -6234,16 +6234,16 @@
         <v>-0.1270766060569576</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3873665713140997</v>
+        <v>-0.3873665713140988</v>
       </c>
       <c r="H70" t="n">
         <v>-0.3609914968086489</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.2800499905121177</v>
+        <v>-0.2800499905121181</v>
       </c>
       <c r="J70" t="n">
-        <v>0.06339567208885422</v>
+        <v>0.06339567208885466</v>
       </c>
       <c r="K70" t="n">
         <v>-0.3212784220079579</v>
@@ -6252,13 +6252,13 @@
         <v>0.6663097923582981</v>
       </c>
       <c r="M70" t="n">
-        <v>1.23691285693829</v>
+        <v>1.236912856938289</v>
       </c>
       <c r="N70" t="n">
         <v>0.23796288500054</v>
       </c>
       <c r="O70" t="n">
-        <v>2.593077037376122</v>
+        <v>2.593077037376123</v>
       </c>
       <c r="P70" t="n">
         <v>1.907384172306068</v>
@@ -6267,13 +6267,13 @@
         <v>0.7256124387333813</v>
       </c>
       <c r="R70" t="n">
-        <v>3.467768990175395</v>
+        <v>3.467768990175394</v>
       </c>
       <c r="S70" t="n">
         <v>1.999452101112468</v>
       </c>
       <c r="T70" t="n">
-        <v>0.7814931775452221</v>
+        <v>0.7814931775452223</v>
       </c>
       <c r="U70" t="n">
         <v>3.529016765316855</v>
@@ -6282,19 +6282,19 @@
         <v>1.431124836748877</v>
       </c>
       <c r="W70" t="n">
-        <v>0.4738995471772819</v>
+        <v>0.4738995471772821</v>
       </c>
       <c r="X70" t="n">
-        <v>2.665946209639266</v>
+        <v>2.665946209639267</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.3824584630957183</v>
+        <v>0.3824584630957182</v>
       </c>
       <c r="Z70" t="n">
         <v>0.02130006744382985</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.98254240403586</v>
+        <v>0.9825424040358601</v>
       </c>
     </row>
     <row r="71">
@@ -6317,16 +6317,16 @@
         <v>-1.133442095345264</v>
       </c>
       <c r="G71" t="n">
-        <v>-1.401222944350313</v>
+        <v>-1.401222944350312</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.8474177565523779</v>
+        <v>-0.8474177565523782</v>
       </c>
       <c r="I71" t="n">
         <v>-2.011346768043397</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.1332524428222155</v>
+        <v>-0.1332524428222146</v>
       </c>
       <c r="K71" t="n">
         <v>-0.3402742867349469</v>
@@ -6368,7 +6368,7 @@
         <v>1.089730226844591</v>
       </c>
       <c r="X71" t="n">
-        <v>4.002203797154352</v>
+        <v>4.002203797154351</v>
       </c>
       <c r="Y71" t="n">
         <v>0.6032235546385974</v>
@@ -6397,16 +6397,16 @@
         <v>-0.0396299447249614</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.001097643813291804</v>
+        <v>-0.001097643813291693</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5225671054012468</v>
+        <v>0.5225671054012473</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1601120723669274</v>
+        <v>0.1601120723669273</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9967285704511952</v>
+        <v>0.9967285704511948</v>
       </c>
       <c r="J72" t="n">
         <v>1.757203452123477</v>
@@ -6448,13 +6448,13 @@
         <v>2.0140013668604</v>
       </c>
       <c r="W72" t="n">
-        <v>0.8302426949115803</v>
+        <v>0.8302426949115804</v>
       </c>
       <c r="X72" t="n">
         <v>3.464311823671695</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.5058299547974134</v>
+        <v>0.5058299547974133</v>
       </c>
       <c r="Z72" t="n">
         <v>0.03422945492210978</v>
